--- a/docs/Db.xlsx
+++ b/docs/Db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toan\Documents\Sources\watch-shop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>Info</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>TypeWire</t>
-  </si>
-  <si>
-    <t>Images</t>
   </si>
   <si>
     <t>MinTotal</t>
@@ -687,7 +684,7 @@
   <dimension ref="A1:AN1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -733,13 +730,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="W3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.25">
@@ -809,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>16</v>
@@ -841,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>26</v>
@@ -882,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>26</v>
@@ -917,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>26</v>
@@ -943,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>26</v>
@@ -964,7 +961,7 @@
         <v>41</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>26</v>
@@ -973,7 +970,7 @@
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -985,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>26</v>
@@ -994,7 +991,7 @@
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>33</v>
@@ -1006,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>26</v>
@@ -1015,13 +1012,13 @@
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>5</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>47</v>
@@ -1096,10 +1093,10 @@
         <v>15</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
@@ -1144,12 +1141,8 @@
       <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
       <c r="J22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1163,13 +1156,13 @@
         <v>8</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>5</v>
@@ -1183,40 +1176,40 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>20</v>
@@ -1225,22 +1218,22 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>8</v>
@@ -1252,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>20</v>
@@ -1261,31 +1254,31 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y25" s="11" t="s">
         <v>33</v>
@@ -1294,25 +1287,25 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>20</v>
@@ -1320,38 +1313,38 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>16</v>
@@ -1359,7 +1352,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>8</v>
@@ -1370,7 +1363,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>8</v>
@@ -1381,18 +1374,18 @@
       <c r="A31" s="2"/>
       <c r="D31" s="2"/>
       <c r="F31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
